--- a/IT23209466 Assignment 01 .xlsx
+++ b/IT23209466 Assignment 01 .xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT23209466\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F7535CF-45A4-46FD-AB6D-D9B4AA873BCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9087D218-C093-44EC-8610-86AB959A4733}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{28302FC7-9160-4A0F-9437-808264AF55ED}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="236">
   <si>
     <t>TC ID</t>
   </si>
@@ -196,9 +196,6 @@
     <t>Missing spaces (Joined)</t>
   </si>
   <si>
-    <t>mamagedarayanawa</t>
-  </si>
-  <si>
     <t>System handles lack of spacing by converting character stream phonetically.</t>
   </si>
   <si>
@@ -280,117 +277,36 @@
     <t>Neg_Fun_01</t>
   </si>
   <si>
-    <t>Email Address Handling</t>
-  </si>
-  <si>
-    <t>mage email eka kamal@gmail.com</t>
-  </si>
-  <si>
     <t>Fail</t>
   </si>
   <si>
-    <t>System transliterated "gmail" phonetically, rendering the email invalid.</t>
-  </si>
-  <si>
     <t>Neg_Fun_02</t>
   </si>
   <si>
-    <t>URL / Web Link</t>
-  </si>
-  <si>
-    <t>site eka www.google.com</t>
-  </si>
-  <si>
-    <t>System transliterated the domain name "google" into Sinhala, breaking the URL structure.</t>
-  </si>
-  <si>
     <t>Neg_Fun_03</t>
   </si>
   <si>
-    <t>Hashtag Preservation</t>
-  </si>
-  <si>
-    <t>#Srilanka cricket</t>
-  </si>
-  <si>
-    <t>The system converted the hashtag text "#Srilanka" into Sinhala, which breaks the tag utility.</t>
-  </si>
-  <si>
     <t>Neg_Fun_04</t>
   </si>
   <si>
-    <t>Brand Capitalization</t>
-  </si>
-  <si>
-    <t>iPhone 13 pro max</t>
-  </si>
-  <si>
-    <t>"iPhone" was not recognized as a brand and was transliterated phonetically to gibberish.</t>
-  </si>
-  <si>
     <t>Neg_Fun_05</t>
   </si>
   <si>
-    <t>Typo (Missing Vowels)</t>
-  </si>
-  <si>
-    <t>mama gdra yanawa</t>
-  </si>
-  <si>
-    <t>System does not auto-correct "gdra" to "gedara" and outputs literal phonetic characters.</t>
-  </si>
-  <si>
     <t>Neg_Fun_06</t>
   </si>
   <si>
-    <t>Typo (Missing Spaces)</t>
-  </si>
-  <si>
-    <t>System failed to segment the words correctly, resulting in one long meaningless string.</t>
-  </si>
-  <si>
     <t>Neg_Fun_07</t>
   </si>
   <si>
-    <t>English Acronyms</t>
-  </si>
-  <si>
-    <t>mama SLIIT yanawa</t>
-  </si>
-  <si>
     <t>Neg_Fun_08</t>
   </si>
   <si>
-    <t>Password/Symbol</t>
-  </si>
-  <si>
-    <t>pass eka P@ssword</t>
-  </si>
-  <si>
-    <t>Special character mixed with text caused incorrect transliteration of the password field.</t>
-  </si>
-  <si>
     <t>Neg_Fun_09</t>
   </si>
   <si>
-    <t>File Extension</t>
-  </si>
-  <si>
-    <t>file eka script.js</t>
-  </si>
-  <si>
-    <t>The file extension ".js" was transliterated, making the file name invalid.</t>
-  </si>
-  <si>
     <t>Neg_Fun_10</t>
   </si>
   <si>
-    <t>English Context (Bus)</t>
-  </si>
-  <si>
-    <t>Bus eka enawa</t>
-  </si>
-  <si>
     <t>Pos_UI_01</t>
   </si>
   <si>
@@ -475,30 +391,6 @@
     <t>Daily language usage | Compound sentence | L | Accuracy validation</t>
   </si>
   <si>
-    <t>Mixed Singlish + English | Simple sentence | M | Robustness validation</t>
-  </si>
-  <si>
-    <t>Mixed Singlish + English | Simple sentence | S| Robustness validation</t>
-  </si>
-  <si>
-    <t>Formatting (spaces/line breaks / paragraph) | Simple sentence | S | Robustness validation</t>
-  </si>
-  <si>
-    <t>Names/places/common English words | Simple sentence | S  | Robustness validation</t>
-  </si>
-  <si>
-    <t>Typographical error handling | Simple sentence | S | Robustness validation</t>
-  </si>
-  <si>
-    <t>Mixed Singlish + English | Simple sentence | S | Robustness validation</t>
-  </si>
-  <si>
-    <t>Mixed Singlish + English | Simple sentence | M| Robustness validation</t>
-  </si>
-  <si>
-    <t>Names/places/common English words | Simple sentence | S | Robustness validation</t>
-  </si>
-  <si>
     <t>Daily language usage | Simple sentence | S | Real-time output update behavior</t>
   </si>
   <si>
@@ -652,53 +544,203 @@
     <t>මම අද උදේ නැගිටලා බලනකොට ගොඩක් වහිනවා එක නිසා මම හිතුවා අද office යන්නේ නැතුව ගෙදර ඉදන් වැඩ කරනවා කියලා ඊට පස්සේ මම town එකට ගියා පොඩි වැඩකට ඒක ඉවරවෙලා මම හවස ගෙදර ආවා</t>
   </si>
   <si>
-    <t>mage email එක කමල්@gmail.com</t>
-  </si>
-  <si>
-    <t>site එක www.google.com</t>
-  </si>
-  <si>
-    <t>#ස්‍රිලන්ක cricket</t>
-  </si>
-  <si>
-    <t>ඉඵ්හොනෙ 13 pro max</t>
-  </si>
-  <si>
-    <t>මම ග්ඩ්‍ර යනwඅ</t>
-  </si>
-  <si>
-    <t>මමගෙඩරයනwඅ</t>
-  </si>
-  <si>
-    <t>මම SLIIT යනwඅ</t>
-  </si>
-  <si>
-    <t>pass එක ඵ්@ස්සwඔර්ඩ්</t>
-  </si>
-  <si>
-    <t>file එක script.ජ්ස්</t>
-  </si>
-  <si>
-    <t>Bus එක එනwඅ</t>
-  </si>
-  <si>
-    <t>Acronym ""SLIIT"" was converted to phonetic Sinhala ""ස්ලීට්"" instead of being preserved.</t>
-  </si>
-  <si>
     <t>Output box updated automatically: මම</t>
   </si>
   <si>
-    <t>Common word ""Bus"" was transliterated literally as ""Boos"" (බුස්) instead of correct phonetic "බස්".</t>
-  </si>
-  <si>
     <t>Accurately converts state of being " udhenma".</t>
+  </si>
+  <si>
+    <t>mamanuvarayanavaa</t>
+  </si>
+  <si>
+    <t>මමනුවරයනවා</t>
+  </si>
+  <si>
+    <t>මම නුවර යනවා</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joined singlish words </t>
+  </si>
+  <si>
+    <t>Output Singlish meaning is correct but missing spaces. | Expected behavior is correct Sinhala segmentation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Word combination and phrase patterns | Simple sentence | S | Robustness validation </t>
+  </si>
+  <si>
+    <t>අදඔෆ්ෆිcඑZඕම්මේටින්ගෙකට මම ලේට්වෙනවා</t>
+  </si>
+  <si>
+    <t>adhaofficeZoommeetingekata mama leetvenavaa</t>
+  </si>
+  <si>
+    <t>අද ඔෆ්ෆිcඑ Zඕම්මේටින්ගෙකට මම ලේට්වෙනවා</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joined sentences with English words </t>
+  </si>
+  <si>
+    <t>Joined words prevent proper separation of Sinhala terms. | English words mixed with joined Singlish words increase the conversion errors.  |  Indicates robustness limitation in handling missing spaces.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Typographical error handli| Simple sentence | M| Robustness validation  </t>
+  </si>
+  <si>
+    <t>හෙට ඔවුන් යනවා නම් අපි නොය ඉමු</t>
+  </si>
+  <si>
+    <t>hetaovunyanavaanam api noya imu</t>
+  </si>
+  <si>
+    <t>හෙටඔවුන්යනවානම් අපි නොය ඉමු</t>
+  </si>
+  <si>
+    <t>Multiple Joined words</t>
+  </si>
+  <si>
+    <t>System does not clearly separate individual words.  |   Output readability is reduces.  |  Demonstarte a robustness limitaion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Typographical error handling   | Simple sentence | M | Robustness validation </t>
+  </si>
+  <si>
+    <t>මට උදේට කන්න බත් ඕනේ</t>
+  </si>
+  <si>
+    <t>mata         udheeta        kanna      bath           oonee</t>
+  </si>
+  <si>
+    <t>මට         උදේට        කන්න      බත්           ඕනේ</t>
+  </si>
+  <si>
+    <t>Extra spaces</t>
+  </si>
+  <si>
+    <t>System does not normalize extra spaces   |    Output formatting appears inconsistent and affects readability    |   Indicates limitations in handling formation irregularities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Formatting spaces | Simple sentence | M  | Robustness validation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+මම ගෙදර යනවා 
+කමල් ඔයා එනවද?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+මම ගෙදර යනවා කමල් ඔයා එනවද?</t>
+  </si>
+  <si>
+    <t>mama gedhara yanavaa 
+kamal oyaa enavadha?</t>
+  </si>
+  <si>
+    <t>Multi line input in a dialog</t>
+  </si>
+  <si>
+    <t>System does not consistenly preserve line breaks  |    Reduces the readability and pragraph sturcture.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Formatting of  line breaks  | Question format | M | Robustness validation </t>
+  </si>
+  <si>
+    <t>hari hari hari hari hari eeka hariyatavaeda karanavaa</t>
+  </si>
+  <si>
+    <t>හරි  ඒක හරියට වැඩ කරනවා</t>
+  </si>
+  <si>
+    <t>හරි හරි හරි හරි හරි ඒක හරියට වැඩ කරනවා</t>
+  </si>
+  <si>
+    <t>Execessive word reptition reduces readability</t>
+  </si>
+  <si>
+    <t>The system does not manage emphasis gracefully.   |  Output is  less natural to a native reader.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Word combination / phrase pattern| Simple sentence | M | Robustness validation </t>
+  </si>
+  <si>
+    <t>mama gedhara yanavaa,,, oyaa enavadha???</t>
+  </si>
+  <si>
+    <t>මම ගෙදර යනවා, ඔයා එනවද?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">මම ගෙදර යනවා,,, ඔයා එනවද???
+</t>
+  </si>
+  <si>
+    <t>Trailing punctuation causes formating</t>
+  </si>
+  <si>
+    <t>The system does not normalize repeated punctuation.  |  Output readability is reduced due to cluttered symbols.  | Indicates a robustness limitation in punctuation handling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Punctuation / numbers|  Question form | M | Robustness validation 
+</t>
+  </si>
+  <si>
+    <t>mama adha edhan work-out karanna patan gannavaa</t>
+  </si>
+  <si>
+    <t>මම අද එදන් work-out කරන්න පටන් ගන්නවා</t>
+  </si>
+  <si>
+    <t>මම අද එදන් work  out කරන්න පටන් ගන්නවා</t>
+  </si>
+  <si>
+    <t>Sentence with hypernated words</t>
+  </si>
+  <si>
+    <t>The system not clearly  normalize the hyphenated term.  | Output readability is slightly reduced. | Indicates  limitation in handling hyphenated words.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hypernated words | Simple sentence | M | Robustness validation </t>
+  </si>
+  <si>
+    <t>mama ADha Hetama geDhara yaNavaa</t>
+  </si>
+  <si>
+    <t>මම අද හෙටම ගෙදර යනවා</t>
+  </si>
+  <si>
+    <t>මම අධ හෙටම ගෙධර යණවා</t>
+  </si>
+  <si>
+    <t>Sentence with mixed casing causes</t>
+  </si>
+  <si>
+    <t>The system does not normalize casings. |   Output readability is reduced due to inconsistent handling. | Indicates a robustness limitation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Typographical error handling| Simple sentence | M| Robustness validation </t>
+  </si>
+  <si>
+    <t>Aparaadha parikshana thumiya pita viya</t>
+  </si>
+  <si>
+    <t>අපරාද පරික්ශන තුමිය පිට විය</t>
+  </si>
+  <si>
+    <t>අපරාධ පරික්ශණ තුමිය පිට විය</t>
+  </si>
+  <si>
+    <t>Checking Cmplex sinhala Words</t>
+  </si>
+  <si>
+    <t>Some complex letter handle inacuratly.  | Sentence meaning is fine. | Sinhala grammar is mid.</t>
+  </si>
+  <si>
+    <t>Professional language usage |Complex letter | M | Accuracy validation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -829,6 +871,13 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1184,10 +1233,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1565,21 +1614,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFD41FC4-8E63-483C-9CD4-1B0981DC664A}">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="12.5546875" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
     <col min="3" max="3" width="9.5546875" customWidth="1"/>
-    <col min="4" max="4" width="32.6640625" customWidth="1"/>
-    <col min="5" max="5" width="34.5546875" customWidth="1"/>
+    <col min="4" max="4" width="32.5546875" customWidth="1"/>
+    <col min="5" max="5" width="38.6640625" customWidth="1"/>
     <col min="6" max="6" width="34.44140625" customWidth="1"/>
-    <col min="8" max="8" width="61.77734375" customWidth="1"/>
+    <col min="8" max="8" width="61.88671875" customWidth="1"/>
     <col min="9" max="9" width="68.88671875" customWidth="1"/>
-    <col min="10" max="10" width="21.33203125" customWidth="1"/>
+    <col min="10" max="10" width="21.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -1622,13 +1671,13 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>161</v>
+        <v>125</v>
       </c>
       <c r="E2" t="s">
-        <v>160</v>
+        <v>124</v>
       </c>
       <c r="F2" t="s">
-        <v>160</v>
+        <v>124</v>
       </c>
       <c r="G2" t="s">
         <v>12</v>
@@ -1637,7 +1686,7 @@
         <v>13</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>128</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -1651,13 +1700,13 @@
         <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>162</v>
+        <v>126</v>
       </c>
       <c r="E3" t="s">
-        <v>164</v>
+        <v>128</v>
       </c>
       <c r="F3" t="s">
-        <v>164</v>
+        <v>128</v>
       </c>
       <c r="G3" t="s">
         <v>12</v>
@@ -1666,7 +1715,7 @@
         <v>17</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>129</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -1680,13 +1729,13 @@
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>163</v>
+        <v>127</v>
       </c>
       <c r="E4" t="s">
-        <v>168</v>
+        <v>132</v>
       </c>
       <c r="F4" t="s">
-        <v>165</v>
+        <v>129</v>
       </c>
       <c r="G4" t="s">
         <v>12</v>
@@ -1695,7 +1744,7 @@
         <v>20</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -1709,13 +1758,13 @@
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>166</v>
+        <v>130</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>167</v>
+        <v>131</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>167</v>
+        <v>131</v>
       </c>
       <c r="G5" t="s">
         <v>12</v>
@@ -1724,7 +1773,7 @@
         <v>23</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -1738,13 +1787,13 @@
         <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>169</v>
+        <v>133</v>
       </c>
       <c r="E6" t="s">
-        <v>170</v>
+        <v>134</v>
       </c>
       <c r="F6" t="s">
-        <v>170</v>
+        <v>134</v>
       </c>
       <c r="G6" t="s">
         <v>12</v>
@@ -1753,7 +1802,7 @@
         <v>26</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>132</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -1767,13 +1816,13 @@
         <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>171</v>
+        <v>135</v>
       </c>
       <c r="E7" t="s">
-        <v>172</v>
+        <v>136</v>
       </c>
       <c r="F7" t="s">
-        <v>172</v>
+        <v>136</v>
       </c>
       <c r="G7" t="s">
         <v>12</v>
@@ -1782,7 +1831,7 @@
         <v>29</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>133</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -1796,13 +1845,13 @@
         <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>173</v>
+        <v>137</v>
       </c>
       <c r="E8" t="s">
-        <v>174</v>
+        <v>138</v>
       </c>
       <c r="F8" t="s">
-        <v>174</v>
+        <v>138</v>
       </c>
       <c r="G8" t="s">
         <v>12</v>
@@ -1811,7 +1860,7 @@
         <v>32</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -1825,13 +1874,13 @@
         <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>175</v>
+        <v>139</v>
       </c>
       <c r="E9" t="s">
-        <v>176</v>
+        <v>140</v>
       </c>
       <c r="F9" t="s">
-        <v>176</v>
+        <v>140</v>
       </c>
       <c r="G9" t="s">
         <v>12</v>
@@ -1840,7 +1889,7 @@
         <v>35</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>135</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -1854,13 +1903,13 @@
         <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>177</v>
+        <v>141</v>
       </c>
       <c r="E10" t="s">
-        <v>178</v>
+        <v>142</v>
       </c>
       <c r="F10" t="s">
-        <v>178</v>
+        <v>142</v>
       </c>
       <c r="G10" t="s">
         <v>12</v>
@@ -1869,7 +1918,7 @@
         <v>38</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>136</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -1883,13 +1932,13 @@
         <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>179</v>
+        <v>143</v>
       </c>
       <c r="E11" t="s">
-        <v>180</v>
+        <v>144</v>
       </c>
       <c r="F11" t="s">
-        <v>180</v>
+        <v>144</v>
       </c>
       <c r="G11" t="s">
         <v>12</v>
@@ -1898,7 +1947,7 @@
         <v>41</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>137</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -1912,13 +1961,13 @@
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>181</v>
+        <v>145</v>
       </c>
       <c r="E12" t="s">
-        <v>182</v>
+        <v>146</v>
       </c>
       <c r="F12" t="s">
-        <v>182</v>
+        <v>146</v>
       </c>
       <c r="G12" t="s">
         <v>12</v>
@@ -1927,7 +1976,7 @@
         <v>44</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>138</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -1941,13 +1990,13 @@
         <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>183</v>
+        <v>147</v>
       </c>
       <c r="E13" t="s">
-        <v>184</v>
+        <v>148</v>
       </c>
       <c r="F13" t="s">
-        <v>184</v>
+        <v>148</v>
       </c>
       <c r="G13" t="s">
         <v>12</v>
@@ -1956,7 +2005,7 @@
         <v>47</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>139</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -1970,25 +2019,25 @@
         <v>16</v>
       </c>
       <c r="D14" t="s">
-        <v>185</v>
+        <v>149</v>
       </c>
       <c r="E14" t="s">
-        <v>186</v>
+        <v>150</v>
       </c>
       <c r="F14" t="s">
-        <v>186</v>
+        <v>150</v>
       </c>
       <c r="G14" t="s">
         <v>12</v>
       </c>
       <c r="H14" t="s">
-        <v>223</v>
+        <v>175</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>50</v>
       </c>
@@ -1999,13 +2048,13 @@
         <v>16</v>
       </c>
       <c r="D15" t="s">
-        <v>188</v>
+        <v>152</v>
       </c>
       <c r="E15" t="s">
-        <v>189</v>
+        <v>153</v>
       </c>
       <c r="F15" t="s">
-        <v>189</v>
+        <v>153</v>
       </c>
       <c r="G15" t="s">
         <v>12</v>
@@ -2014,7 +2063,7 @@
         <v>52</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>140</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -2028,13 +2077,13 @@
         <v>11</v>
       </c>
       <c r="D16" t="s">
-        <v>190</v>
+        <v>154</v>
       </c>
       <c r="E16" t="s">
-        <v>191</v>
+        <v>155</v>
       </c>
       <c r="F16" t="s">
-        <v>191</v>
+        <v>155</v>
       </c>
       <c r="G16" t="s">
         <v>12</v>
@@ -2043,7 +2092,7 @@
         <v>55</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>141</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
@@ -2057,573 +2106,573 @@
         <v>11</v>
       </c>
       <c r="D17" t="s">
-        <v>192</v>
+        <v>156</v>
       </c>
       <c r="E17" t="s">
-        <v>193</v>
+        <v>157</v>
       </c>
       <c r="F17" t="s">
-        <v>193</v>
+        <v>157</v>
       </c>
       <c r="G17" t="s">
         <v>12</v>
       </c>
       <c r="H17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>142</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" t="s">
         <v>60</v>
-      </c>
-      <c r="B18" t="s">
-        <v>61</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D18" t="s">
-        <v>194</v>
+        <v>158</v>
       </c>
       <c r="E18" t="s">
-        <v>195</v>
+        <v>159</v>
       </c>
       <c r="F18" t="s">
-        <v>195</v>
+        <v>159</v>
       </c>
       <c r="G18" t="s">
         <v>12</v>
       </c>
       <c r="H18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>143</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" t="s">
         <v>63</v>
-      </c>
-      <c r="B19" t="s">
-        <v>64</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D19" t="s">
-        <v>196</v>
+        <v>160</v>
       </c>
       <c r="E19" t="s">
-        <v>197</v>
+        <v>161</v>
       </c>
       <c r="F19" t="s">
-        <v>197</v>
+        <v>161</v>
       </c>
       <c r="G19" t="s">
         <v>12</v>
       </c>
       <c r="H19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>144</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" t="s">
         <v>66</v>
-      </c>
-      <c r="B20" t="s">
-        <v>67</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D20" t="s">
-        <v>198</v>
+        <v>162</v>
       </c>
       <c r="E20" t="s">
-        <v>199</v>
+        <v>163</v>
       </c>
       <c r="F20" t="s">
-        <v>199</v>
+        <v>163</v>
       </c>
       <c r="G20" t="s">
         <v>12</v>
       </c>
       <c r="H20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>145</v>
+        <v>117</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" t="s">
         <v>69</v>
-      </c>
-      <c r="B21" t="s">
-        <v>70</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D21" t="s">
-        <v>200</v>
+        <v>164</v>
       </c>
       <c r="E21" t="s">
-        <v>201</v>
+        <v>165</v>
       </c>
       <c r="F21" t="s">
-        <v>201</v>
+        <v>165</v>
       </c>
       <c r="G21" t="s">
         <v>12</v>
       </c>
       <c r="H21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>146</v>
+        <v>118</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" t="s">
         <v>72</v>
-      </c>
-      <c r="B22" t="s">
-        <v>73</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D22" t="s">
-        <v>202</v>
+        <v>166</v>
       </c>
       <c r="E22" t="s">
-        <v>203</v>
+        <v>167</v>
       </c>
       <c r="F22" t="s">
-        <v>203</v>
+        <v>167</v>
       </c>
       <c r="G22" t="s">
         <v>12</v>
       </c>
       <c r="H22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>147</v>
+        <v>119</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
+        <v>74</v>
+      </c>
+      <c r="B23" t="s">
         <v>75</v>
-      </c>
-      <c r="B23" t="s">
-        <v>76</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D23" t="s">
-        <v>204</v>
+        <v>168</v>
       </c>
       <c r="E23" t="s">
-        <v>205</v>
+        <v>169</v>
       </c>
       <c r="F23" t="s">
-        <v>205</v>
+        <v>169</v>
       </c>
       <c r="G23" t="s">
         <v>12</v>
       </c>
       <c r="H23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
+        <v>77</v>
+      </c>
+      <c r="B24" t="s">
         <v>78</v>
-      </c>
-      <c r="B24" t="s">
-        <v>79</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D24" t="s">
-        <v>206</v>
+        <v>170</v>
       </c>
       <c r="E24" t="s">
-        <v>207</v>
+        <v>171</v>
       </c>
       <c r="F24" t="s">
-        <v>207</v>
+        <v>171</v>
       </c>
       <c r="G24" t="s">
         <v>12</v>
       </c>
       <c r="H24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>149</v>
+        <v>121</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
+        <v>80</v>
+      </c>
+      <c r="B25" t="s">
         <v>81</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="D25" t="s">
-        <v>208</v>
+        <v>172</v>
       </c>
       <c r="E25" t="s">
-        <v>209</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>209</v>
+        <v>173</v>
+      </c>
+      <c r="F25" t="s">
+        <v>173</v>
       </c>
       <c r="G25" t="s">
         <v>12</v>
       </c>
       <c r="H25" t="s">
+        <v>83</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>84</v>
       </c>
-      <c r="I25" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+      <c r="B26" t="s">
+        <v>179</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" t="s">
+        <v>176</v>
+      </c>
+      <c r="E26" t="s">
+        <v>178</v>
+      </c>
+      <c r="F26" t="s">
+        <v>177</v>
+      </c>
+      <c r="G26" t="s">
         <v>85</v>
       </c>
-      <c r="B26" t="s">
-        <v>86</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D26" t="s">
-        <v>87</v>
-      </c>
-      <c r="E26" t="s">
-        <v>210</v>
-      </c>
-      <c r="F26" t="s">
-        <v>210</v>
-      </c>
-      <c r="G26" t="s">
-        <v>88</v>
-      </c>
       <c r="H26" t="s">
-        <v>89</v>
+        <v>180</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>151</v>
+        <v>181</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B27" t="s">
-        <v>91</v>
+        <v>185</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D27" t="s">
-        <v>92</v>
+        <v>183</v>
       </c>
       <c r="E27" t="s">
-        <v>211</v>
+        <v>184</v>
       </c>
       <c r="F27" t="s">
-        <v>211</v>
+        <v>182</v>
       </c>
       <c r="G27" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H27" t="s">
-        <v>93</v>
+        <v>186</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>157</v>
+        <v>187</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B28" t="s">
-        <v>95</v>
+        <v>191</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D28" t="s">
-        <v>96</v>
-      </c>
-      <c r="E28" t="s">
-        <v>212</v>
+        <v>189</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>188</v>
       </c>
       <c r="F28" t="s">
-        <v>212</v>
+        <v>190</v>
       </c>
       <c r="G28" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H28" t="s">
-        <v>97</v>
+        <v>192</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>153</v>
+        <v>193</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="B29" t="s">
-        <v>99</v>
+        <v>197</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D29" t="s">
-        <v>100</v>
+        <v>195</v>
       </c>
       <c r="E29" t="s">
-        <v>213</v>
+        <v>194</v>
       </c>
       <c r="F29" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="G29" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H29" t="s">
-        <v>101</v>
+        <v>198</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="B30" t="s">
-        <v>103</v>
+        <v>203</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D30" t="s">
-        <v>104</v>
-      </c>
-      <c r="E30" t="s">
-        <v>214</v>
-      </c>
-      <c r="F30" t="s">
-        <v>214</v>
+        <v>16</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>200</v>
       </c>
       <c r="G30" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H30" t="s">
-        <v>105</v>
+        <v>204</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>155</v>
+        <v>205</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="B31" t="s">
-        <v>107</v>
+        <v>209</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D31" t="s">
-        <v>58</v>
+        <v>206</v>
       </c>
       <c r="E31" t="s">
+        <v>207</v>
+      </c>
+      <c r="F31" t="s">
+        <v>208</v>
+      </c>
+      <c r="G31" t="s">
+        <v>85</v>
+      </c>
+      <c r="H31" t="s">
+        <v>210</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>91</v>
+      </c>
+      <c r="B32" t="s">
         <v>215</v>
       </c>
-      <c r="F31" t="s">
-        <v>215</v>
-      </c>
-      <c r="G31" t="s">
-        <v>88</v>
-      </c>
-      <c r="H31" t="s">
-        <v>108</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>109</v>
-      </c>
-      <c r="B32" t="s">
-        <v>110</v>
-      </c>
       <c r="C32" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D32" t="s">
-        <v>111</v>
+        <v>212</v>
       </c>
       <c r="E32" t="s">
+        <v>213</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="G32" t="s">
+        <v>85</v>
+      </c>
+      <c r="H32" t="s">
         <v>216</v>
       </c>
-      <c r="F32" t="s">
-        <v>216</v>
-      </c>
-      <c r="G32" t="s">
-        <v>88</v>
-      </c>
-      <c r="H32" t="s">
-        <v>220</v>
-      </c>
       <c r="I32" s="1" t="s">
-        <v>156</v>
+        <v>217</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="B33" t="s">
-        <v>113</v>
+        <v>221</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D33" t="s">
-        <v>114</v>
+        <v>218</v>
       </c>
       <c r="E33" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="F33" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="G33" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H33" t="s">
-        <v>115</v>
+        <v>222</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>156</v>
+        <v>223</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="B34" t="s">
-        <v>117</v>
+        <v>227</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D34" t="s">
-        <v>118</v>
+        <v>224</v>
       </c>
       <c r="E34" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="F34" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="G34" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H34" t="s">
-        <v>119</v>
+        <v>228</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="B35" t="s">
-        <v>121</v>
+        <v>233</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D35" t="s">
-        <v>122</v>
+        <v>230</v>
       </c>
       <c r="E35" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="F35" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="G35" t="s">
-        <v>88</v>
-      </c>
-      <c r="H35" t="s">
-        <v>222</v>
+        <v>85</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>234</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>158</v>
+        <v>235</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>123</v>
+        <v>95</v>
       </c>
       <c r="B36" t="s">
-        <v>124</v>
+        <v>96</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D36" t="s">
-        <v>125</v>
+        <v>97</v>
       </c>
       <c r="E36" t="s">
-        <v>126</v>
+        <v>98</v>
       </c>
       <c r="F36" t="s">
-        <v>221</v>
+        <v>174</v>
       </c>
       <c r="G36" t="s">
         <v>12</v>
       </c>
       <c r="H36" t="s">
-        <v>127</v>
+        <v>99</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>159</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
